--- a/data_decision_tree.xlsx
+++ b/data_decision_tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/jasmin_koura-bodji_gesis_org/Documents/Dokumente/DecisionTree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ED9282D465E6BCB/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5BD7B0-BB08-4249-8AC8-129701BB3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCD797-CC74-4FAA-B256-81662DD45509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
+    <workbookView xWindow="5670" yWindow="240" windowWidth="27000" windowHeight="14115" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Desicion Tree" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
   <si>
     <t>targeted</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Blasius, Jörg, and Victor Thiessen.</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://dx.doi.org/10.4135/9781446251874.n1 </t>
-  </si>
-  <si>
     <t>SB1093</t>
   </si>
   <si>
@@ -523,13 +520,61 @@
   </si>
   <si>
     <t>SB1066</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://dx.doi.org/10.4135/9781446251874.n1</t>
+  </si>
+  <si>
+    <t>Digital Data, Administrative Data, and Survey Compared: Updating the Classical Toolbox for Assessing Data Quality of Big Data, Exemplified by the Generation of Corruption Data</t>
+  </si>
+  <si>
+    <t>Graeff, Peter and Baur, Nina</t>
+  </si>
+  <si>
+    <t>Historical Social Research</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>244-269</t>
+  </si>
+  <si>
+    <t>Quality assessment of administrative data</t>
+  </si>
+  <si>
+    <t>bibtype</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>A system for managing the quality of official statistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,14 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{5678F97D-BF4B-4F5C-B053-3246DE297ECD}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,9 +670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +710,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +816,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,11 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C22D6B-7773-4F92-8DA1-8B24F36DB95E}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -935,7 +983,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,8 +1005,29 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -974,14 +1043,23 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2">
+        <v>2011</v>
+      </c>
+      <c r="N2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1003,8 +1081,14 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1018,16 +1102,37 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4">
+        <v>2020</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1043,14 +1148,14 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1066,14 +1171,14 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1089,14 +1194,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1112,14 +1217,14 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1135,14 +1240,14 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1158,14 +1263,14 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1181,14 +1286,14 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1204,14 +1309,14 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1227,14 +1332,14 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1250,14 +1355,14 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1273,14 +1378,14 @@
       <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1296,14 +1401,14 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1320,13 +1425,13 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1340,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1363,16 +1468,16 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>68</v>
       </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1386,16 +1491,16 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1409,16 +1514,16 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1432,16 +1537,16 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1455,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1478,16 +1583,16 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>83</v>
       </c>
-      <c r="G24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1501,16 +1606,16 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>86</v>
       </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1524,16 +1629,16 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>89</v>
       </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1547,16 +1652,16 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>92</v>
       </c>
-      <c r="G27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1570,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1618,14 +1723,14 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1641,14 +1746,14 @@
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1662,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1687,14 +1792,14 @@
       <c r="E33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1710,65 +1815,65 @@
       <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>102</v>
       </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>105</v>
       </c>
-      <c r="G36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1777,44 +1882,44 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>112</v>
       </c>
-      <c r="G38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1823,21 +1928,21 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>115</v>
       </c>
-      <c r="G39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1846,21 +1951,21 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>118</v>
       </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1869,21 +1974,21 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>121</v>
       </c>
-      <c r="G41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1892,21 +1997,21 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>124</v>
       </c>
-      <c r="G42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -1915,21 +2020,21 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>127</v>
       </c>
-      <c r="G43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -1938,21 +2043,21 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>130</v>
       </c>
-      <c r="G44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1961,21 +2066,21 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>133</v>
       </c>
-      <c r="G45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -1984,21 +2089,21 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>136</v>
       </c>
-      <c r="G46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -2007,21 +2112,21 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>139</v>
       </c>
-      <c r="G47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -2030,21 +2135,21 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>142</v>
       </c>
-      <c r="G48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -2053,21 +2158,21 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>145</v>
       </c>
-      <c r="G49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -2076,21 +2181,21 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>148</v>
       </c>
-      <c r="G50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -2099,21 +2204,21 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>151</v>
       </c>
-      <c r="G51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -2122,21 +2227,21 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>154</v>
       </c>
-      <c r="G52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -2145,21 +2250,21 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>157</v>
       </c>
-      <c r="G53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -2168,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>160</v>
-      </c>
-      <c r="G54" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2184,18 +2289,72 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{62FEDA82-C4B0-4ADF-80A7-80174723F7EF}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{9ADF527B-5D21-40F6-9F7D-27751351FA21}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{74051A88-3729-4DCF-94AE-47E6FFC6E710}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{10E4457D-0719-4D6F-A37D-9EB7F8398E97}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{059C20BE-4960-47EA-9AA8-0A96A71B9AAE}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{AF4BD4C6-7245-49F6-AE13-1C085F268D56}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{FC1DF1F2-1C28-4280-AD68-FD9F421B6492}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{F69FDC39-BF89-4E9B-BB96-BE470CB1D088}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{2271EC97-50F7-47D8-8784-D4DFB034082A}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{4347976E-A6B5-4490-9C61-EDE7728E6BBA}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{36254A56-1329-41F6-9127-839EF3CDCF4C}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{B3734B19-2562-4EBD-ABBE-05EAB72A8BCE}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{67B72E95-44D4-49A3-9AC2-5D7BBC57B5E5}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{58651C53-815E-46C4-9B64-B1EB68DD93AC}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{EE536A4E-6098-4341-8BDF-378E27998222}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{77225407-0047-47CF-B063-96CEC1E38AA3}"/>
+    <hyperlink ref="F22" r:id="rId17" xr:uid="{ABC140D5-CC67-410C-9146-DD910E6F7F8D}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{A1E1B046-4C5A-47E7-8544-286498533FE2}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{159C25E8-363C-4CC9-9F2E-9A8EEACA0A83}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{D06F408B-0582-448A-B304-3335B4FB4710}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{4EDBFCD8-30DA-403A-943F-C3C5C53211A4}"/>
+    <hyperlink ref="F30" r:id="rId22" xr:uid="{8431DDE5-B109-4B74-ABA2-C57B42C515FB}"/>
+    <hyperlink ref="F32" r:id="rId23" xr:uid="{E9950E0A-F65A-4966-A5D7-AF83EFBF6AD9}"/>
+    <hyperlink ref="F34" r:id="rId24" xr:uid="{42AC8FD9-D5A9-4E7A-9DEC-5877DA738185}"/>
+    <hyperlink ref="F35" r:id="rId25" xr:uid="{D467344F-C102-4989-934C-D1196FA43EDE}"/>
+    <hyperlink ref="F36" r:id="rId26" xr:uid="{60C755BE-99AB-45FE-B429-9C96B187D5FB}"/>
+    <hyperlink ref="F37" r:id="rId27" xr:uid="{9B215F3E-3C03-4594-9B53-21555D94E67D}"/>
+    <hyperlink ref="F38" r:id="rId28" xr:uid="{28C47EA9-69CA-4281-9535-76C87DB70EA6}"/>
+    <hyperlink ref="F39" r:id="rId29" xr:uid="{98FCB237-39B3-4810-A4DE-72716911ECD6}"/>
+    <hyperlink ref="F40" r:id="rId30" xr:uid="{F1B43FF1-08C7-4B0D-8866-843EC2F2F88F}"/>
+    <hyperlink ref="F41" r:id="rId31" xr:uid="{79B33F36-8448-466B-B96F-D7505D52065B}"/>
+    <hyperlink ref="F42" r:id="rId32" xr:uid="{704AFC2D-F5C7-402D-9FF3-7DD3986385A7}"/>
+    <hyperlink ref="F43" r:id="rId33" xr:uid="{D586137C-0FE8-4BA2-98F2-81648AEBB194}"/>
+    <hyperlink ref="F44" r:id="rId34" location="page=240" xr:uid="{C4626A04-B7C0-496C-AD36-6E995DF65964}"/>
+    <hyperlink ref="F45" r:id="rId35" xr:uid="{3D3DF0CD-342D-4E04-AEAF-FEB8F801C64D}"/>
+    <hyperlink ref="F46" r:id="rId36" xr:uid="{7BBC104C-1672-4F9D-92E5-2A1FBC3265CC}"/>
+    <hyperlink ref="F47" r:id="rId37" xr:uid="{76E7A867-9E75-47ED-8124-9E07F17B48E6}"/>
+    <hyperlink ref="F48" r:id="rId38" xr:uid="{76BF5DB2-772F-4E45-934F-566630D687A4}"/>
+    <hyperlink ref="F49" r:id="rId39" xr:uid="{459C61D5-2C0E-45DF-B6CE-998BC965A098}"/>
+    <hyperlink ref="F50" r:id="rId40" xr:uid="{1AF1F2E0-69BF-4486-A156-53A49E5C02FC}"/>
+    <hyperlink ref="F51" r:id="rId41" xr:uid="{2BBBDDB3-EA5D-426E-8528-6B76D9974619}"/>
+    <hyperlink ref="F52" r:id="rId42" xr:uid="{AFACB8B4-5163-4847-870C-4A18600B4DDF}"/>
+    <hyperlink ref="F53" r:id="rId43" xr:uid="{756A6EAC-D9CC-4788-8740-67B63B5528F1}"/>
+    <hyperlink ref="F54" r:id="rId44" xr:uid="{F035A8F9-8109-4B15-A0FE-970E682490B2}"/>
+    <hyperlink ref="F19" r:id="rId45" xr:uid="{9BC0784D-3EFA-4D67-882E-162A6ACFFC10}"/>
+    <hyperlink ref="F21" r:id="rId46" xr:uid="{23F24AC6-4461-4104-9CAA-3A2007B98667}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{D22C948B-7FEA-4CB0-940F-2ED94CD15864}"/>
+    <hyperlink ref="F27" r:id="rId48" xr:uid="{6E1E51F4-9E8F-409B-A30D-2CA2702837EC}"/>
+    <hyperlink ref="F31" r:id="rId49" xr:uid="{25ABE311-6E0B-403D-8F0C-1042846DA7A7}"/>
+    <hyperlink ref="F33" r:id="rId50" xr:uid="{091D32FC-3E20-4C50-A301-DA5545948660}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12cf9c2b-bfad-42a4-9161-676935bf2ec1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6daae3eb-2639-4af5-8588-538f21b527af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2436,24 +2595,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12cf9c2b-bfad-42a4-9161-676935bf2ec1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6daae3eb-2639-4af5-8588-538f21b527af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3040F7-6DDD-40B7-8C19-A9F976DFB5DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
+    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B323C8-7EDF-4A30-A478-FB26E679035F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B323C8-7EDF-4A30-A478-FB26E679035F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
+    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3040F7-6DDD-40B7-8C19-A9F976DFB5DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data_decision_tree.xlsx
+++ b/data_decision_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ED9282D465E6BCB/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/felix_bergstein_gesis_org/Documents/ShinyGesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACCD797-CC74-4FAA-B256-81662DD45509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8F8F7BAA-16C2-4C62-AE09-F3EBADAF8789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBA2D40-0050-4EA4-9D6D-28B397ABB843}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="240" windowWidth="27000" windowHeight="14115" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Desicion Tree" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
   <si>
     <t>targeted</t>
   </si>
@@ -225,6 +225,9 @@
     <t>Blasius, Jörg, and Victor Thiessen.</t>
   </si>
   <si>
+    <t xml:space="preserve"> https://dx.doi.org/10.4135/9781446251874.n1 </t>
+  </si>
+  <si>
     <t>SB1093</t>
   </si>
   <si>
@@ -523,51 +526,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://dx.doi.org/10.4135/9781446251874.n1</t>
-  </si>
-  <si>
-    <t>Digital Data, Administrative Data, and Survey Compared: Updating the Classical Toolbox for Assessing Data Quality of Big Data, Exemplified by the Generation of Corruption Data</t>
-  </si>
-  <si>
-    <t>Graeff, Peter and Baur, Nina</t>
-  </si>
-  <si>
-    <t>Historical Social Research</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>244-269</t>
-  </si>
-  <si>
-    <t>Quality assessment of administrative data</t>
-  </si>
-  <si>
-    <t>bibtype</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>A system for managing the quality of official statistics</t>
   </si>
 </sst>
 </file>
@@ -641,11 +599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{5678F97D-BF4B-4F5C-B053-3246DE297ECD}"/>
@@ -966,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C22D6B-7773-4F92-8DA1-8B24F36DB95E}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +940,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,28 +963,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1043,23 +982,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2">
-        <v>2011</v>
-      </c>
-      <c r="N2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1081,14 +1011,8 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1102,37 +1026,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4">
-        <v>2020</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M4">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1148,14 +1051,14 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1171,14 +1074,14 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1194,14 +1097,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1217,14 +1120,14 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1240,14 +1143,14 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1263,14 +1166,14 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1286,14 +1189,14 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1309,14 +1212,14 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1332,14 +1235,14 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1355,14 +1258,14 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1378,14 +1281,14 @@
       <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1401,7 +1304,7 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>59</v>
       </c>
       <c r="G16" t="s">
@@ -1425,10 +1328,10 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,13 +1371,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,13 +1394,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,13 +1440,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,13 +1486,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,13 +1532,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,13 +1555,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,7 +1626,7 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
@@ -1746,7 +1649,7 @@
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
@@ -1767,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,7 +1695,7 @@
       <c r="E33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33" t="s">
@@ -1815,7 +1718,7 @@
       <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>27</v>
       </c>
       <c r="G34" t="s">
@@ -1827,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1836,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1859,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1882,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1905,13 +1808,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1928,13 +1831,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1951,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1974,13 +1877,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1997,13 +1900,13 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -2020,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -2043,13 +1946,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -2066,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -2089,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2103,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -2112,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -2135,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -2158,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -2181,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="F50" t="s">
+        <v>148</v>
+      </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -2204,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="F51" t="s">
+        <v>151</v>
+      </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -2227,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -2250,13 +2153,13 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -2273,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2289,75 +2192,12 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{62FEDA82-C4B0-4ADF-80A7-80174723F7EF}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{9ADF527B-5D21-40F6-9F7D-27751351FA21}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{74051A88-3729-4DCF-94AE-47E6FFC6E710}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{10E4457D-0719-4D6F-A37D-9EB7F8398E97}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{059C20BE-4960-47EA-9AA8-0A96A71B9AAE}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{AF4BD4C6-7245-49F6-AE13-1C085F268D56}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{FC1DF1F2-1C28-4280-AD68-FD9F421B6492}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{F69FDC39-BF89-4E9B-BB96-BE470CB1D088}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{2271EC97-50F7-47D8-8784-D4DFB034082A}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{4347976E-A6B5-4490-9C61-EDE7728E6BBA}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{36254A56-1329-41F6-9127-839EF3CDCF4C}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{B3734B19-2562-4EBD-ABBE-05EAB72A8BCE}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{67B72E95-44D4-49A3-9AC2-5D7BBC57B5E5}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{58651C53-815E-46C4-9B64-B1EB68DD93AC}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{EE536A4E-6098-4341-8BDF-378E27998222}"/>
-    <hyperlink ref="F20" r:id="rId16" xr:uid="{77225407-0047-47CF-B063-96CEC1E38AA3}"/>
-    <hyperlink ref="F22" r:id="rId17" xr:uid="{ABC140D5-CC67-410C-9146-DD910E6F7F8D}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{A1E1B046-4C5A-47E7-8544-286498533FE2}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{159C25E8-363C-4CC9-9F2E-9A8EEACA0A83}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{D06F408B-0582-448A-B304-3335B4FB4710}"/>
-    <hyperlink ref="F28" r:id="rId21" xr:uid="{4EDBFCD8-30DA-403A-943F-C3C5C53211A4}"/>
-    <hyperlink ref="F30" r:id="rId22" xr:uid="{8431DDE5-B109-4B74-ABA2-C57B42C515FB}"/>
-    <hyperlink ref="F32" r:id="rId23" xr:uid="{E9950E0A-F65A-4966-A5D7-AF83EFBF6AD9}"/>
-    <hyperlink ref="F34" r:id="rId24" xr:uid="{42AC8FD9-D5A9-4E7A-9DEC-5877DA738185}"/>
-    <hyperlink ref="F35" r:id="rId25" xr:uid="{D467344F-C102-4989-934C-D1196FA43EDE}"/>
-    <hyperlink ref="F36" r:id="rId26" xr:uid="{60C755BE-99AB-45FE-B429-9C96B187D5FB}"/>
-    <hyperlink ref="F37" r:id="rId27" xr:uid="{9B215F3E-3C03-4594-9B53-21555D94E67D}"/>
-    <hyperlink ref="F38" r:id="rId28" xr:uid="{28C47EA9-69CA-4281-9535-76C87DB70EA6}"/>
-    <hyperlink ref="F39" r:id="rId29" xr:uid="{98FCB237-39B3-4810-A4DE-72716911ECD6}"/>
-    <hyperlink ref="F40" r:id="rId30" xr:uid="{F1B43FF1-08C7-4B0D-8866-843EC2F2F88F}"/>
-    <hyperlink ref="F41" r:id="rId31" xr:uid="{79B33F36-8448-466B-B96F-D7505D52065B}"/>
-    <hyperlink ref="F42" r:id="rId32" xr:uid="{704AFC2D-F5C7-402D-9FF3-7DD3986385A7}"/>
-    <hyperlink ref="F43" r:id="rId33" xr:uid="{D586137C-0FE8-4BA2-98F2-81648AEBB194}"/>
-    <hyperlink ref="F44" r:id="rId34" location="page=240" xr:uid="{C4626A04-B7C0-496C-AD36-6E995DF65964}"/>
-    <hyperlink ref="F45" r:id="rId35" xr:uid="{3D3DF0CD-342D-4E04-AEAF-FEB8F801C64D}"/>
-    <hyperlink ref="F46" r:id="rId36" xr:uid="{7BBC104C-1672-4F9D-92E5-2A1FBC3265CC}"/>
-    <hyperlink ref="F47" r:id="rId37" xr:uid="{76E7A867-9E75-47ED-8124-9E07F17B48E6}"/>
-    <hyperlink ref="F48" r:id="rId38" xr:uid="{76BF5DB2-772F-4E45-934F-566630D687A4}"/>
-    <hyperlink ref="F49" r:id="rId39" xr:uid="{459C61D5-2C0E-45DF-B6CE-998BC965A098}"/>
-    <hyperlink ref="F50" r:id="rId40" xr:uid="{1AF1F2E0-69BF-4486-A156-53A49E5C02FC}"/>
-    <hyperlink ref="F51" r:id="rId41" xr:uid="{2BBBDDB3-EA5D-426E-8528-6B76D9974619}"/>
-    <hyperlink ref="F52" r:id="rId42" xr:uid="{AFACB8B4-5163-4847-870C-4A18600B4DDF}"/>
-    <hyperlink ref="F53" r:id="rId43" xr:uid="{756A6EAC-D9CC-4788-8740-67B63B5528F1}"/>
-    <hyperlink ref="F54" r:id="rId44" xr:uid="{F035A8F9-8109-4B15-A0FE-970E682490B2}"/>
-    <hyperlink ref="F19" r:id="rId45" xr:uid="{9BC0784D-3EFA-4D67-882E-162A6ACFFC10}"/>
-    <hyperlink ref="F21" r:id="rId46" xr:uid="{23F24AC6-4461-4104-9CAA-3A2007B98667}"/>
-    <hyperlink ref="F25" r:id="rId47" xr:uid="{D22C948B-7FEA-4CB0-940F-2ED94CD15864}"/>
-    <hyperlink ref="F27" r:id="rId48" xr:uid="{6E1E51F4-9E8F-409B-A30D-2CA2702837EC}"/>
-    <hyperlink ref="F31" r:id="rId49" xr:uid="{25ABE311-6E0B-403D-8F0C-1042846DA7A7}"/>
-    <hyperlink ref="F33" r:id="rId50" xr:uid="{091D32FC-3E20-4C50-A301-DA5545948660}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12cf9c2b-bfad-42a4-9161-676935bf2ec1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6daae3eb-2639-4af5-8588-538f21b527af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100206ADD3C7D39C34A86701F08AECB51A9" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d9e83460eeb9f479a95218b58c82b377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12cf9c2b-bfad-42a4-9161-676935bf2ec1" xmlns:ns3="6daae3eb-2639-4af5-8588-538f21b527af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e53e7b4db45bb2ef7899ecb73702854" ns2:_="" ns3:_="">
     <xsd:import namespace="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
@@ -2594,6 +2434,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12cf9c2b-bfad-42a4-9161-676935bf2ec1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6daae3eb-2639-4af5-8588-538f21b527af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2604,17 +2455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
-    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B323C8-7EDF-4A30-A478-FB26E679035F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2633,6 +2473,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
+    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3040F7-6DDD-40B7-8C19-A9F976DFB5DD}">
   <ds:schemaRefs>

--- a/data_decision_tree.xlsx
+++ b/data_decision_tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/jasmin_koura-bodji_gesis_org/Documents/Dokumente/DecisionTree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/felix_bergstein_gesis_org/Documents/ShinyGesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5BD7B0-BB08-4249-8AC8-129701BB3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8F8F7BAA-16C2-4C62-AE09-F3EBADAF8789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBA2D40-0050-4EA4-9D6D-28B397ABB843}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34BAFF7A-DC3B-4D9E-99EE-FC845C2AEC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Desicion Tree" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
   <si>
     <t>targeted</t>
   </si>
@@ -523,13 +523,16 @@
   </si>
   <si>
     <t>SB1066</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,7 +606,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{5678F97D-BF4B-4F5C-B053-3246DE297ECD}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,11 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C22D6B-7773-4F92-8DA1-8B24F36DB95E}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -935,7 +940,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,8 +962,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -981,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1165,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1510,7 +1518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1579,7 +1587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1648,7 +1656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1763,7 +1771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -1901,7 +1909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -1970,7 +1978,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -1993,7 +2001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2190,15 +2198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100206ADD3C7D39C34A86701F08AECB51A9" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d9e83460eeb9f479a95218b58c82b377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12cf9c2b-bfad-42a4-9161-676935bf2ec1" xmlns:ns3="6daae3eb-2639-4af5-8588-538f21b527af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e53e7b4db45bb2ef7899ecb73702854" ns2:_="" ns3:_="">
     <xsd:import namespace="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
@@ -2435,7 +2434,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="12cf9c2b-bfad-42a4-9161-676935bf2ec1">
@@ -2446,14 +2445,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3040F7-6DDD-40B7-8C19-A9F976DFB5DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B323C8-7EDF-4A30-A478-FB26E679035F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
+    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B323C8-7EDF-4A30-A478-FB26E679035F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12cf9c2b-bfad-42a4-9161-676935bf2ec1"/>
+    <ds:schemaRef ds:uri="6daae3eb-2639-4af5-8588-538f21b527af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E0C78E-853A-4E2C-A923-3402C86EA19B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3040F7-6DDD-40B7-8C19-A9F976DFB5DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>